--- a/ProfitLossProforma.xlsx
+++ b/ProfitLossProforma.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e2417179ba1166b/Documents/Forbes Consulting LLC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2C29610-B03D-4DF4-A9F1-B2F90A09CC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C2C29610-B03D-4DF4-A9F1-B2F90A09CC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEFFB144-CE8A-4E8D-92CC-72C3235791C7}"/>
   <bookViews>
-    <workbookView xWindow="39585" yWindow="1050" windowWidth="26130" windowHeight="19830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28710" yWindow="1050" windowWidth="26130" windowHeight="19830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profit &amp; Loss" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Total</t>
   </si>
@@ -276,70 +275,16 @@
     <t>Growth Rate =</t>
   </si>
   <si>
-    <t>Sean: This needs to be the actual % based on the payroll taxes using row 55</t>
-  </si>
-  <si>
-    <t>Moving to WeWork in June. 10k Deposit received in June</t>
-  </si>
-  <si>
     <t>Client Cancelations</t>
   </si>
   <si>
     <t>Cancel Rate</t>
   </si>
   <si>
-    <t>NOTES</t>
-  </si>
-  <si>
     <t xml:space="preserve">      64120 Sales Commissions</t>
   </si>
   <si>
-    <t>Insert actual cost of Prosper, accelorate and other shows. Currently only shows 3 shows we did in 2023</t>
-  </si>
-  <si>
-    <t>tbd once sean finishes subscription</t>
-  </si>
-  <si>
-    <t>Changed to be a .0291% stripe fee. With 1 month discount based on the founders card. Also need to confirm $ of clients who pay stripe fee</t>
-  </si>
-  <si>
-    <t>2024 take off the 75k from SL team + Hire mango Fees end 5/30/24. Need to forecast raises + new hires</t>
-  </si>
-  <si>
-    <t>Sean: Fee may increase by $100 per person if we change providers</t>
-  </si>
-  <si>
-    <t>JOSH: Need to input the tax we expect to pay</t>
-  </si>
-  <si>
-    <t>RENEE: Let's use actuals based on travel plans</t>
-  </si>
-  <si>
-    <t>RENEE: What did we pay josh for taxes? What will his contact charge us? Added 3k expense in April for taxes</t>
-  </si>
-  <si>
-    <t>RENEE: Confirm, I'm putting $500 as our budget for sergio, since we wont work w Ike anymore</t>
-  </si>
-  <si>
     <t xml:space="preserve">401k </t>
-  </si>
-  <si>
-    <t>SEAN: Do we need to change this? Or can we leave it since its added to wages?</t>
-  </si>
-  <si>
-    <t>SEAN: Need the payroll info in table below and formula connecting</t>
-  </si>
-  <si>
-    <t>30% of deals closed each month + 1% for 12 months. Numbers for Brandon closing 10k per month</t>
-  </si>
-  <si>
-    <t>RENEE: Insert last years DSP amounts for SL clients</t>
-  </si>
-  <si>
-    <t>row not needed. Ignore</t>
-  </si>
-  <si>
-    <t>SEAN FIX</t>
   </si>
 </sst>
 </file>
@@ -656,7 +601,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -728,9 +673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1098,23 +1040,35 @@
   <dimension ref="A1:AB88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="26" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="116" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="116" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1122,55 +1076,55 @@
     </row>
     <row r="2" spans="1:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="43">
+      <c r="L2" s="40">
         <v>20000</v>
       </c>
-      <c r="O2" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" s="37">
+      <c r="O2" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="34">
         <v>-10000</v>
       </c>
-      <c r="R2" s="32"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="47"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="44"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
@@ -1251,9 +1205,6 @@
       </c>
       <c r="AA5" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="AB5" s="33" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -1286,11 +1237,11 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="13"/>
-      <c r="AB6" s="34"/>
+      <c r="AB6" s="31"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>82</v>
+      <c r="A7" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -1387,7 +1338,7 @@
         <f>((((((((O7)+(P7))+(Q7))+(R7))+(S7))+(T7))+(U7))+(V7))+(W7)+X7+Y7+Z7</f>
         <v>-120000</v>
       </c>
-      <c r="AB7" s="34"/>
+      <c r="AB7" s="31"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1496,7 +1447,7 @@
         <f t="shared" ref="AA8:AA72" si="3">((((((((O8)+(P8))+(Q8))+(R8))+(S8))+(T8))+(U8))+(V8))+(W8)+X8+Y8+Z8</f>
         <v>5878.3169748890014</v>
       </c>
-      <c r="AB8" s="34"/>
+      <c r="AB8" s="31"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1603,9 +1554,7 @@
         <f t="shared" si="3"/>
         <v>3000000</v>
       </c>
-      <c r="AB9" s="34" t="s">
-        <v>101</v>
-      </c>
+      <c r="AB9" s="31"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1668,7 +1617,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="34"/>
+      <c r="AB10" s="31"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1778,7 +1727,7 @@
         <f t="shared" si="3"/>
         <v>2885878.316974889</v>
       </c>
-      <c r="AB11" s="34"/>
+      <c r="AB11" s="31"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1816,82 +1765,80 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="34"/>
+      <c r="AB12" s="31"/>
     </row>
-    <row r="13" spans="1:28" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="36">
         <f>39415.03</f>
         <v>39415.03</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="32">
         <f>57435.22</f>
         <v>57435.22</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="32">
         <f>63742.22</f>
         <v>63742.22</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="32">
         <f>26977.37</f>
         <v>26977.37</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="32">
         <f>9341.44</f>
         <v>9341.44</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="32">
         <f>9083.35</f>
         <v>9083.35</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="32">
         <f>10111.25</f>
         <v>10111.25</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="32">
         <f>50501</f>
         <v>50501</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="26">
         <v>4980.0600000000004</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="32">
         <f>-5000*0.1</f>
         <v>-500</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="32">
         <f>-5000*0.1</f>
         <v>-500</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="32">
         <f>-5000*0.1</f>
         <v>-500</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="37">
         <f t="shared" si="2"/>
         <v>270086.94</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="40">
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="41" t="s">
-        <v>99</v>
-      </c>
+      <c r="AB13" s="38"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1978,7 +1925,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="34"/>
+      <c r="AB14" s="31"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -2088,7 +2035,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="34"/>
+      <c r="AB15" s="31"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -2198,7 +2145,7 @@
         <f t="shared" si="3"/>
         <v>2885878.316974889</v>
       </c>
-      <c r="AB16" s="34"/>
+      <c r="AB16" s="31"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -2236,7 +2183,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="34"/>
+      <c r="AB17" s="31"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -2326,9 +2273,7 @@
         <f>((((((((O17)+(P18))+(Q18))+(R18))+(S18))+(T18))+(U18))+(V18))+(W18)+X18+Y18+Z18</f>
         <v>0</v>
       </c>
-      <c r="AB18" s="34" t="s">
-        <v>100</v>
-      </c>
+      <c r="AB18" s="31"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -2431,7 +2376,7 @@
         <f t="shared" si="3"/>
         <v>167.30463449586915</v>
       </c>
-      <c r="AB19" s="34"/>
+      <c r="AB19" s="31"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -2529,7 +2474,7 @@
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="AB20" s="34"/>
+      <c r="AB20" s="31"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -2639,7 +2584,7 @@
         <f t="shared" si="3"/>
         <v>3167.3046344958693</v>
       </c>
-      <c r="AB21" s="34"/>
+      <c r="AB21" s="31"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -2747,7 +2692,7 @@
         <f t="shared" si="3"/>
         <v>2932.9097626921071</v>
       </c>
-      <c r="AB22" s="34"/>
+      <c r="AB22" s="31"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -2834,7 +2779,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="34"/>
+      <c r="AB23" s="31"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -2944,79 +2889,77 @@
         <f t="shared" si="3"/>
         <v>664.93059617616996</v>
       </c>
-      <c r="AB24" s="34"/>
+      <c r="AB24" s="31"/>
     </row>
-    <row r="25" spans="1:28" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="36">
         <f>140</f>
         <v>140</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="32">
         <f>4956.44</f>
         <v>4956.4399999999996</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="32">
         <f>140</f>
         <v>140</v>
       </c>
-      <c r="E25" s="29">
-        <v>0</v>
-      </c>
-      <c r="F25" s="29">
-        <v>0</v>
-      </c>
-      <c r="G25" s="29">
-        <v>0</v>
-      </c>
-      <c r="H25" s="35">
+      <c r="E25" s="26">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32">
         <f>1497</f>
         <v>1497</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="32">
         <f>558</f>
         <v>558</v>
       </c>
-      <c r="J25" s="29">
-        <v>0</v>
-      </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="40">
+      <c r="J25" s="26">
+        <v>0</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="37">
         <f t="shared" si="2"/>
         <v>7291.44</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="35">
+      <c r="O25" s="36"/>
+      <c r="P25" s="32">
         <f>4956.44</f>
         <v>4956.4399999999996</v>
       </c>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35">
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32">
         <f>1497</f>
         <v>1497</v>
       </c>
-      <c r="V25" s="35">
+      <c r="V25" s="32">
         <f>558</f>
         <v>558</v>
       </c>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="40">
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="37">
         <f t="shared" si="3"/>
         <v>7011.44</v>
       </c>
-      <c r="AB25" s="41" t="s">
-        <v>86</v>
-      </c>
+      <c r="AB25" s="38"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -3126,78 +3069,76 @@
         <f t="shared" si="3"/>
         <v>11885.217594131411</v>
       </c>
-      <c r="AB26" s="34"/>
+      <c r="AB26" s="31"/>
     </row>
-    <row r="27" spans="1:28" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="36">
         <f>2308.29</f>
         <v>2308.29</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="32">
         <f>3899.1</f>
         <v>3899.1</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="32">
         <f>3455.44</f>
         <v>3455.44</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="32">
         <f>4303.63</f>
         <v>4303.63</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="32">
         <f>3500.75</f>
         <v>3500.75</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="32">
         <f>4771.55</f>
         <v>4771.55</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="32">
         <f>8138.65</f>
         <v>8138.65</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="32">
         <f>12619.91</f>
         <v>12619.91</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="32">
         <f>37027.97</f>
         <v>37027.97</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="32">
         <v>27000</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="32">
         <v>27000</v>
       </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="40">
+      <c r="M27" s="32"/>
+      <c r="N27" s="37">
         <f t="shared" si="2"/>
         <v>134025.28999999998</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="40">
+      <c r="O27" s="36"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="41" t="s">
-        <v>87</v>
-      </c>
+      <c r="AB27" s="38"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -3268,7 +3209,7 @@
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="AB28" s="34"/>
+      <c r="AB28" s="31"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -3374,7 +3315,7 @@
         <f t="shared" si="3"/>
         <v>489.92784678174195</v>
       </c>
-      <c r="AB29" s="34"/>
+      <c r="AB29" s="31"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -3472,7 +3413,7 @@
         <f>((((((((O30)+(P30))+(Q30))+(R30))+(Q24))+(T30))+(U30))+(V30))+(W30)+X30+Y30+Z30</f>
         <v>7373.6739583333328</v>
       </c>
-      <c r="AB30" s="34"/>
+      <c r="AB30" s="31"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -3582,7 +3523,7 @@
         <f t="shared" si="3"/>
         <v>11035.08</v>
       </c>
-      <c r="AB31" s="34"/>
+      <c r="AB31" s="31"/>
     </row>
     <row r="32" spans="1:28" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -3692,7 +3633,7 @@
         <f t="shared" si="3"/>
         <v>12210</v>
       </c>
-      <c r="AB32" s="34"/>
+      <c r="AB32" s="31"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -3802,7 +3743,7 @@
         <f t="shared" si="3"/>
         <v>30618.753958333335</v>
       </c>
-      <c r="AB33" s="34"/>
+      <c r="AB33" s="31"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -3912,7 +3853,7 @@
         <f t="shared" si="3"/>
         <v>3236.0802526073949</v>
       </c>
-      <c r="AB34" s="34"/>
+      <c r="AB34" s="31"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -3950,7 +3891,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="34"/>
+      <c r="AB35" s="31"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -4036,7 +3977,7 @@
         <f t="shared" si="3"/>
         <v>4800</v>
       </c>
-      <c r="AB36" s="34"/>
+      <c r="AB36" s="31"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
@@ -4146,7 +4087,7 @@
         <f t="shared" si="3"/>
         <v>4800</v>
       </c>
-      <c r="AB37" s="34"/>
+      <c r="AB37" s="31"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
@@ -4256,7 +4197,7 @@
         <f t="shared" si="3"/>
         <v>8036.0802526073949</v>
       </c>
-      <c r="AB38" s="34"/>
+      <c r="AB38" s="31"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -4351,7 +4292,7 @@
         <f t="shared" si="3"/>
         <v>14000</v>
       </c>
-      <c r="AB39" s="34"/>
+      <c r="AB39" s="31"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
@@ -4431,7 +4372,7 @@
         <f t="shared" si="3"/>
         <v>14481.98666666666</v>
       </c>
-      <c r="AB40" s="34"/>
+      <c r="AB40" s="31"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -4518,7 +4459,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB41" s="34"/>
+      <c r="AB41" s="31"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4625,9 +4566,7 @@
         <f t="shared" si="3"/>
         <v>82512.965227730165</v>
       </c>
-      <c r="AB42" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="AB42" s="31"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
@@ -4737,7 +4676,7 @@
         <f t="shared" si="3"/>
         <v>96994.951894396843</v>
       </c>
-      <c r="AB43" s="34"/>
+      <c r="AB43" s="31"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
@@ -4847,118 +4786,116 @@
         <f t="shared" si="3"/>
         <v>4383.8661054943295</v>
       </c>
-      <c r="AB44" s="34"/>
+      <c r="AB44" s="31"/>
     </row>
-    <row r="45" spans="1:28" s="42" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+    <row r="45" spans="1:28" s="39" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="39">
+      <c r="B45" s="36">
         <f>24547.64</f>
         <v>24547.64</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="32">
         <f>11377.69</f>
         <v>11377.69</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="32">
         <f>32491.63</f>
         <v>32491.63</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="32">
         <f>16200.33</f>
         <v>16200.33</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="32">
         <f>37500</f>
         <v>37500</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="32">
         <f>29607.77</f>
         <v>29607.77</v>
       </c>
-      <c r="H45" s="35">
+      <c r="H45" s="32">
         <f>28974.65</f>
         <v>28974.65</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="32">
         <f>79074.5</f>
         <v>79074.5</v>
       </c>
-      <c r="J45" s="35">
+      <c r="J45" s="32">
         <f>120821.46</f>
         <v>120821.46</v>
       </c>
-      <c r="K45" s="35">
+      <c r="K45" s="32">
         <v>120000</v>
       </c>
-      <c r="L45" s="35">
+      <c r="L45" s="32">
         <v>120000</v>
       </c>
-      <c r="M45" s="35">
+      <c r="M45" s="32">
         <f>120000+13600</f>
         <v>133600</v>
       </c>
-      <c r="N45" s="40">
+      <c r="N45" s="37">
         <f t="shared" si="2"/>
         <v>754195.66999999993</v>
       </c>
-      <c r="O45" s="39">
+      <c r="O45" s="36">
         <f>L45-72000</f>
         <v>48000</v>
       </c>
-      <c r="P45" s="35">
+      <c r="P45" s="32">
         <v>48000</v>
       </c>
-      <c r="Q45" s="35">
+      <c r="Q45" s="32">
         <v>48000</v>
       </c>
-      <c r="R45" s="35">
+      <c r="R45" s="32">
         <v>48000</v>
       </c>
-      <c r="S45" s="35">
+      <c r="S45" s="32">
         <f>48000-3000</f>
         <v>45000</v>
       </c>
-      <c r="T45" s="35">
+      <c r="T45" s="32">
         <f t="shared" ref="T45:Z45" si="123">48000-3000</f>
         <v>45000</v>
       </c>
-      <c r="U45" s="35">
+      <c r="U45" s="32">
         <f t="shared" si="123"/>
         <v>45000</v>
       </c>
-      <c r="V45" s="35">
+      <c r="V45" s="32">
         <f t="shared" si="123"/>
         <v>45000</v>
       </c>
-      <c r="W45" s="35">
+      <c r="W45" s="32">
         <f t="shared" si="123"/>
         <v>45000</v>
       </c>
-      <c r="X45" s="35">
+      <c r="X45" s="32">
         <f t="shared" si="123"/>
         <v>45000</v>
       </c>
-      <c r="Y45" s="35">
+      <c r="Y45" s="32">
         <f t="shared" si="123"/>
         <v>45000</v>
       </c>
-      <c r="Z45" s="35">
+      <c r="Z45" s="32">
         <f t="shared" si="123"/>
         <v>45000</v>
       </c>
-      <c r="AA45" s="40">
+      <c r="AA45" s="37">
         <f t="shared" si="3"/>
         <v>552000</v>
       </c>
-      <c r="AB45" s="41" t="s">
-        <v>89</v>
-      </c>
+      <c r="AB45" s="38"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B46" s="5">
         <f>5354.11</f>
@@ -5057,9 +4994,7 @@
         <f t="shared" si="3"/>
         <v>71227.361082180112</v>
       </c>
-      <c r="AB46" s="34" t="s">
-        <v>98</v>
-      </c>
+      <c r="AB46" s="31"/>
     </row>
     <row r="47" spans="1:28" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
@@ -5169,7 +5104,7 @@
         <f t="shared" si="3"/>
         <v>623227.36108218017</v>
       </c>
-      <c r="AB47" s="34"/>
+      <c r="AB47" s="31"/>
     </row>
     <row r="48" spans="1:28" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
@@ -5272,7 +5207,7 @@
         <f t="shared" si="3"/>
         <v>3631.1736030161333</v>
       </c>
-      <c r="AB48" s="34"/>
+      <c r="AB48" s="31"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
@@ -5381,7 +5316,7 @@
         <f t="shared" si="3"/>
         <v>636.54207855191453</v>
       </c>
-      <c r="AB49" s="34"/>
+      <c r="AB49" s="31"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
@@ -5419,7 +5354,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB50" s="34"/>
+      <c r="AB50" s="31"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -5526,7 +5461,7 @@
         <f t="shared" si="3"/>
         <v>11260.551239142922</v>
       </c>
-      <c r="AB51" s="34"/>
+      <c r="AB51" s="31"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -5635,7 +5570,7 @@
         <f t="shared" si="3"/>
         <v>90000</v>
       </c>
-      <c r="AB52" s="34"/>
+      <c r="AB52" s="31"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
@@ -5745,9 +5680,7 @@
         <f t="shared" si="3"/>
         <v>3387.4818910868898</v>
       </c>
-      <c r="AB53" s="34" t="s">
-        <v>90</v>
-      </c>
+      <c r="AB53" s="31"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
@@ -5857,13 +5790,11 @@
         <f t="shared" si="3"/>
         <v>45941.802974703925</v>
       </c>
-      <c r="AB54" s="34" t="s">
-        <v>80</v>
-      </c>
+      <c r="AB54" s="31"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -5891,119 +5822,117 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="14"/>
-      <c r="AB55" s="34"/>
+      <c r="AB55" s="31"/>
     </row>
-    <row r="56" spans="1:28" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
+    <row r="56" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="39">
+      <c r="B56" s="36">
         <f>51490.01</f>
         <v>51490.01</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="32">
         <f>47145.72</f>
         <v>47145.72</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="32">
         <f>42580.27</f>
         <v>42580.27</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E56" s="32">
         <f>46567.98</f>
         <v>46567.98</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="32">
         <f>37227.72</f>
         <v>37227.72</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G56" s="32">
         <f>38850</f>
         <v>38850</v>
       </c>
-      <c r="H56" s="35">
+      <c r="H56" s="32">
         <f>41271.85</f>
         <v>41271.85</v>
       </c>
-      <c r="I56" s="35">
+      <c r="I56" s="32">
         <f>45422.11</f>
         <v>45422.11</v>
       </c>
-      <c r="J56" s="35">
+      <c r="J56" s="32">
         <f>39801.23</f>
         <v>39801.230000000003</v>
       </c>
-      <c r="K56" s="35">
+      <c r="K56" s="32">
         <f>AVERAGE($B56:J56)</f>
         <v>43372.987777777773</v>
       </c>
-      <c r="L56" s="35">
+      <c r="L56" s="32">
         <f>AVERAGE($B56:K56)</f>
         <v>43372.987777777773</v>
       </c>
-      <c r="M56" s="35">
+      <c r="M56" s="32">
         <f>AVERAGE($B56:L56)</f>
         <v>43372.987777777773</v>
       </c>
-      <c r="N56" s="40">
+      <c r="N56" s="37">
         <f t="shared" si="2"/>
         <v>520475.85333333327</v>
       </c>
-      <c r="O56" s="39">
+      <c r="O56" s="36">
         <f>AVERAGE(B56:M56)+75000</f>
         <v>118372.98777777777</v>
       </c>
-      <c r="P56" s="35">
+      <c r="P56" s="32">
         <f>AVERAGE(C56:$M56,$O56:O56)+75000</f>
         <v>123946.56925925927</v>
       </c>
-      <c r="Q56" s="35">
+      <c r="Q56" s="32">
         <f>AVERAGE(D56:$M56,$O56:P56)+75000</f>
         <v>130346.64003086419</v>
       </c>
-      <c r="R56" s="35">
+      <c r="R56" s="32">
         <f>AVERAGE(E56:$M56,$O56:Q56)+75000</f>
         <v>137660.50420010288</v>
       </c>
-      <c r="S56" s="35">
+      <c r="S56" s="32">
         <f>AVERAGE(F56:$M56,$O56:R56)+75000</f>
         <v>145251.54788344479</v>
       </c>
-      <c r="T56" s="35">
+      <c r="T56" s="32">
         <f>AVERAGE(G56:$M56,$O56:S56)+75000</f>
         <v>154253.53354039852</v>
       </c>
-      <c r="U56" s="35">
+      <c r="U56" s="32">
         <f>AVERAGE(H56:$M56,$O56:T56)+75000</f>
         <v>163870.49466876505</v>
       </c>
-      <c r="V56" s="35">
+      <c r="V56" s="32">
         <f>AVERAGE(I56:$M56,$O56:U56)+75000</f>
         <v>174087.04839116213</v>
       </c>
-      <c r="W56" s="35">
+      <c r="W56" s="32">
         <f>AVERAGE(J56:$M56,$O56:V56)+75000</f>
         <v>184809.12659042567</v>
       </c>
-      <c r="X56" s="35">
+      <c r="X56" s="32">
         <f>AVERAGE(K56:$M56,$O56:W56)+75000</f>
         <v>196893.1179729611</v>
       </c>
-      <c r="Y56" s="35">
+      <c r="Y56" s="32">
         <f>AVERAGE(L56:$M56,$O56:X56)+75000</f>
         <v>209686.46215589307</v>
       </c>
-      <c r="Z56" s="35">
+      <c r="Z56" s="32">
         <f>AVERAGE(M56:$M56,$O56:Y56)+75000</f>
         <v>223545.91835406935</v>
       </c>
-      <c r="AA56" s="40">
+      <c r="AA56" s="37">
         <f t="shared" si="3"/>
         <v>1962723.9508251238</v>
       </c>
-      <c r="AB56" s="41" t="s">
-        <v>97</v>
-      </c>
+      <c r="AB56" s="38"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
@@ -6113,9 +6042,7 @@
         <f t="shared" si="3"/>
         <v>-19733.759999999998</v>
       </c>
-      <c r="AB57" s="34" t="s">
-        <v>96</v>
-      </c>
+      <c r="AB57" s="31"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
@@ -6225,7 +6152,7 @@
         <f t="shared" si="3"/>
         <v>1942990.1908251236</v>
       </c>
-      <c r="AB58" s="34"/>
+      <c r="AB58" s="31"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
@@ -6335,7 +6262,7 @@
         <f t="shared" si="3"/>
         <v>2093580.0269300574</v>
       </c>
-      <c r="AB59" s="34"/>
+      <c r="AB59" s="31"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
@@ -6444,7 +6371,7 @@
         <f t="shared" si="3"/>
         <v>672.34555804002309</v>
       </c>
-      <c r="AB60" s="34"/>
+      <c r="AB60" s="31"/>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
@@ -6549,7 +6476,7 @@
         <f t="shared" si="3"/>
         <v>12038.599565011638</v>
       </c>
-      <c r="AB61" s="34"/>
+      <c r="AB61" s="31"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
@@ -6642,9 +6569,7 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="AB62" s="34" t="s">
-        <v>94</v>
-      </c>
+      <c r="AB62" s="31"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
@@ -6737,9 +6662,7 @@
         <f t="shared" si="3"/>
         <v>6850</v>
       </c>
-      <c r="AB63" s="34" t="s">
-        <v>93</v>
-      </c>
+      <c r="AB63" s="31"/>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
@@ -6849,7 +6772,7 @@
         <f t="shared" si="3"/>
         <v>24888.599565011638</v>
       </c>
-      <c r="AB64" s="34"/>
+      <c r="AB64" s="31"/>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
@@ -6951,9 +6874,7 @@
         <f t="shared" si="3"/>
         <v>22000</v>
       </c>
-      <c r="AB65" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="AB65" s="31"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
@@ -7056,112 +6977,110 @@
         <f t="shared" si="3"/>
         <v>165.97116170997987</v>
       </c>
-      <c r="AB66" s="34"/>
+      <c r="AB66" s="31"/>
     </row>
-    <row r="67" spans="1:28" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="38" t="s">
+    <row r="67" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="30">
-        <v>0</v>
-      </c>
-      <c r="C67" s="35">
+      <c r="B67" s="27">
+        <v>0</v>
+      </c>
+      <c r="C67" s="32">
         <f>164.59</f>
         <v>164.59</v>
       </c>
-      <c r="D67" s="35">
+      <c r="D67" s="32">
         <f>379</f>
         <v>379</v>
       </c>
-      <c r="E67" s="29">
-        <v>0</v>
-      </c>
-      <c r="F67" s="35">
+      <c r="E67" s="26">
+        <v>0</v>
+      </c>
+      <c r="F67" s="32">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="G67" s="29">
-        <v>0</v>
-      </c>
-      <c r="H67" s="29">
-        <v>0</v>
-      </c>
-      <c r="I67" s="35">
+      <c r="G67" s="26">
+        <v>0</v>
+      </c>
+      <c r="H67" s="26">
+        <v>0</v>
+      </c>
+      <c r="I67" s="32">
         <f>150</f>
         <v>150</v>
       </c>
-      <c r="J67" s="29"/>
-      <c r="K67" s="35">
+      <c r="J67" s="26"/>
+      <c r="K67" s="32">
         <f>AVERAGE($B67:J67)</f>
         <v>87.323750000000004</v>
       </c>
-      <c r="L67" s="35">
+      <c r="L67" s="32">
         <f>AVERAGE($B67:K67)</f>
         <v>87.323750000000004</v>
       </c>
-      <c r="M67" s="35">
+      <c r="M67" s="32">
         <f>AVERAGE($B67:L67)</f>
         <v>87.323750000000004</v>
       </c>
-      <c r="N67" s="40">
+      <c r="N67" s="37">
         <f t="shared" si="2"/>
         <v>960.56125000000009</v>
       </c>
-      <c r="O67" s="39">
+      <c r="O67" s="36">
         <f>AVERAGE(B67:M67)</f>
         <v>87.323750000000004</v>
       </c>
-      <c r="P67" s="35">
+      <c r="P67" s="32">
         <f>AVERAGE(C67:$M67,$O67:O67)</f>
         <v>95.26227272727273</v>
       </c>
-      <c r="Q67" s="35">
+      <c r="Q67" s="32">
         <f>AVERAGE(D67:$M67,$O67:P67)</f>
         <v>88.959752066115712</v>
       </c>
-      <c r="R67" s="35">
+      <c r="R67" s="32">
         <f>AVERAGE(E67:$M67,$O67:Q67)</f>
         <v>62.592456799398953</v>
       </c>
-      <c r="S67" s="35">
+      <c r="S67" s="32">
         <f>AVERAGE(F67:$M67,$O67:R67)</f>
         <v>68.28268014479886</v>
       </c>
-      <c r="T67" s="35">
+      <c r="T67" s="32">
         <f>AVERAGE(G67:$M67,$O67:S67)</f>
         <v>74.035651067053308</v>
       </c>
-      <c r="U67" s="35">
+      <c r="U67" s="32">
         <f>AVERAGE(H67:$M67,$O67:T67)</f>
         <v>80.766164800421791</v>
       </c>
-      <c r="V67" s="35">
+      <c r="V67" s="32">
         <f>AVERAGE(I67:$M67,$O67:U67)</f>
         <v>88.108543418641958</v>
       </c>
-      <c r="W67" s="35">
+      <c r="W67" s="32">
         <f>AVERAGE(J67:$M67,$O67:V67)</f>
         <v>82.482047365791217</v>
       </c>
-      <c r="X67" s="35">
+      <c r="X67" s="32">
         <f>AVERAGE(K67:$M67,$O67:W67)</f>
         <v>82.482047365791217</v>
       </c>
-      <c r="Y67" s="35">
+      <c r="Y67" s="32">
         <f>AVERAGE(L67:$M67,$O67:X67)</f>
         <v>82.078572146273828</v>
       </c>
-      <c r="Z67" s="35">
+      <c r="Z67" s="32">
         <f>AVERAGE(M67:$M67,$O67:Y67)</f>
         <v>81.641473991796644</v>
       </c>
-      <c r="AA67" s="40">
+      <c r="AA67" s="37">
         <f t="shared" si="3"/>
         <v>974.01541189335626</v>
       </c>
-      <c r="AB67" s="41" t="s">
-        <v>91</v>
-      </c>
+      <c r="AB67" s="38"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
@@ -7271,7 +7190,7 @@
         <f t="shared" si="3"/>
         <v>1984.1999999999996</v>
       </c>
-      <c r="AB68" s="34"/>
+      <c r="AB68" s="31"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
@@ -7380,77 +7299,75 @@
         <f t="shared" si="3"/>
         <v>1791.8412048199496</v>
       </c>
-      <c r="AB69" s="34"/>
+      <c r="AB69" s="31"/>
     </row>
-    <row r="70" spans="1:28" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="38" t="s">
+    <row r="70" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="39">
+      <c r="B70" s="36">
         <f>2027.06</f>
         <v>2027.06</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="32">
         <f>3399.16</f>
         <v>3399.16</v>
       </c>
-      <c r="D70" s="35">
+      <c r="D70" s="32">
         <f>495.98</f>
         <v>495.98</v>
       </c>
-      <c r="E70" s="35">
+      <c r="E70" s="32">
         <f>450.36</f>
         <v>450.36</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F70" s="32">
         <f>1470.3</f>
         <v>1470.3</v>
       </c>
-      <c r="G70" s="35">
+      <c r="G70" s="32">
         <f>99</f>
         <v>99</v>
       </c>
-      <c r="H70" s="35">
+      <c r="H70" s="32">
         <f>680.39</f>
         <v>680.39</v>
       </c>
-      <c r="I70" s="35">
+      <c r="I70" s="32">
         <f>2125.11</f>
         <v>2125.11</v>
       </c>
-      <c r="J70" s="35">
+      <c r="J70" s="32">
         <f>9080.79</f>
         <v>9080.7900000000009</v>
       </c>
-      <c r="K70" s="35">
+      <c r="K70" s="32">
         <f>AVERAGE($B70:J70)</f>
         <v>2203.1277777777777</v>
       </c>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="40">
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="37">
         <f t="shared" si="2"/>
         <v>22031.277777777781</v>
       </c>
-      <c r="O70" s="39"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
-      <c r="AA70" s="40">
+      <c r="O70" s="36"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="32"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+      <c r="X70" s="32"/>
+      <c r="Y70" s="32"/>
+      <c r="Z70" s="32"/>
+      <c r="AA70" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB70" s="41" t="s">
-        <v>92</v>
-      </c>
+      <c r="AB70" s="38"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
@@ -7539,7 +7456,7 @@
         <f t="shared" si="3"/>
         <v>1910.2493687753631</v>
       </c>
-      <c r="AB71" s="34"/>
+      <c r="AB71" s="31"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
@@ -7643,7 +7560,7 @@
         <f t="shared" si="3"/>
         <v>3126.4130838230471</v>
       </c>
-      <c r="AB72" s="34"/>
+      <c r="AB72" s="31"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
@@ -7753,7 +7670,7 @@
         <f t="shared" ref="AA73:AA84" si="197">((((((((O73)+(P73))+(Q73))+(R73))+(S73))+(T73))+(U73))+(V73))+(W73)+X73+Y73+Z73</f>
         <v>2970774.1216929876</v>
       </c>
-      <c r="AB73" s="34"/>
+      <c r="AB73" s="31"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
@@ -7863,7 +7780,7 @@
         <f t="shared" si="197"/>
         <v>-84895.804718098982</v>
       </c>
-      <c r="AB74" s="34"/>
+      <c r="AB74" s="31"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
@@ -7901,7 +7818,7 @@
         <f t="shared" si="197"/>
         <v>0</v>
       </c>
-      <c r="AB75" s="34"/>
+      <c r="AB75" s="31"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
@@ -7988,7 +7905,7 @@
         <f t="shared" si="197"/>
         <v>0</v>
       </c>
-      <c r="AB76" s="34"/>
+      <c r="AB76" s="31"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
@@ -8079,7 +7996,7 @@
         <f t="shared" si="197"/>
         <v>9730.1666666666661</v>
       </c>
-      <c r="AB77" s="34"/>
+      <c r="AB77" s="31"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
@@ -8189,7 +8106,7 @@
         <f t="shared" si="197"/>
         <v>9730.1666666666661</v>
       </c>
-      <c r="AB78" s="34"/>
+      <c r="AB78" s="31"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
@@ -8227,107 +8144,107 @@
         <f t="shared" si="197"/>
         <v>0</v>
       </c>
-      <c r="AB79" s="34"/>
+      <c r="AB79" s="31"/>
     </row>
-    <row r="80" spans="1:28" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="38" t="s">
+    <row r="80" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="30">
-        <v>0</v>
-      </c>
-      <c r="C80" s="29">
-        <v>0</v>
-      </c>
-      <c r="D80" s="35">
+      <c r="B80" s="27">
+        <v>0</v>
+      </c>
+      <c r="C80" s="26">
+        <v>0</v>
+      </c>
+      <c r="D80" s="32">
         <f>800</f>
         <v>800</v>
       </c>
-      <c r="E80" s="29">
-        <v>0</v>
-      </c>
-      <c r="F80" s="29">
-        <v>0</v>
-      </c>
-      <c r="G80" s="35">
+      <c r="E80" s="26">
+        <v>0</v>
+      </c>
+      <c r="F80" s="26">
+        <v>0</v>
+      </c>
+      <c r="G80" s="32">
         <f>1000</f>
         <v>1000</v>
       </c>
-      <c r="H80" s="29">
-        <v>0</v>
-      </c>
-      <c r="I80" s="29">
-        <v>0</v>
-      </c>
-      <c r="J80" s="29">
-        <v>0</v>
-      </c>
-      <c r="K80" s="29">
-        <v>0</v>
-      </c>
-      <c r="L80" s="29">
-        <v>0</v>
-      </c>
-      <c r="M80" s="29">
-        <v>0</v>
-      </c>
-      <c r="N80" s="40">
+      <c r="H80" s="26">
+        <v>0</v>
+      </c>
+      <c r="I80" s="26">
+        <v>0</v>
+      </c>
+      <c r="J80" s="26">
+        <v>0</v>
+      </c>
+      <c r="K80" s="26">
+        <v>0</v>
+      </c>
+      <c r="L80" s="26">
+        <v>0</v>
+      </c>
+      <c r="M80" s="26">
+        <v>0</v>
+      </c>
+      <c r="N80" s="37">
         <f>((((((((B80)+(C80))+(D80))+(E80))+(F80))+(G80))+(H80))+(I80))+(J80)+K80+L80+M80</f>
         <v>1800</v>
       </c>
-      <c r="O80" s="30">
+      <c r="O80" s="27">
         <f>AVERAGE($B80:$D80)</f>
         <v>266.66666666666669</v>
       </c>
-      <c r="P80" s="29">
+      <c r="P80" s="26">
         <f t="shared" ref="P80:Q80" si="216">AVERAGE($B80:$D80)</f>
         <v>266.66666666666669</v>
       </c>
-      <c r="Q80" s="29">
+      <c r="Q80" s="26">
         <f t="shared" si="216"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="R80" s="29">
+      <c r="R80" s="26">
         <f>AVERAGE($E80:$G80)</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="S80" s="29">
+      <c r="S80" s="26">
         <f t="shared" ref="S80:T80" si="217">AVERAGE($E80:$G80)</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="T80" s="29">
+      <c r="T80" s="26">
         <f t="shared" si="217"/>
         <v>333.33333333333331</v>
       </c>
-      <c r="U80" s="29">
+      <c r="U80" s="26">
         <f>AVERAGE($H80:$J80)</f>
         <v>0</v>
       </c>
-      <c r="V80" s="29">
+      <c r="V80" s="26">
         <f t="shared" ref="V80:W80" si="218">AVERAGE($H80:$J80)</f>
         <v>0</v>
       </c>
-      <c r="W80" s="29">
+      <c r="W80" s="26">
         <f t="shared" si="218"/>
         <v>0</v>
       </c>
-      <c r="X80" s="29">
+      <c r="X80" s="26">
         <f>AVERAGE($K80:$M80)</f>
         <v>0</v>
       </c>
-      <c r="Y80" s="29">
+      <c r="Y80" s="26">
         <f t="shared" ref="Y80:Z80" si="219">AVERAGE($K80:$M80)</f>
         <v>0</v>
       </c>
-      <c r="Z80" s="29">
+      <c r="Z80" s="26">
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="AA80" s="40">
+      <c r="AA80" s="37">
         <f t="shared" si="197"/>
         <v>1799.9999999999998</v>
       </c>
-      <c r="AB80" s="41"/>
+      <c r="AB80" s="38"/>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
@@ -8414,7 +8331,7 @@
         <f t="shared" si="197"/>
         <v>0</v>
       </c>
-      <c r="AB81" s="34"/>
+      <c r="AB81" s="31"/>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
@@ -8524,7 +8441,7 @@
         <f t="shared" si="197"/>
         <v>1799.9999999999998</v>
       </c>
-      <c r="AB82" s="34"/>
+      <c r="AB82" s="31"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
@@ -8634,7 +8551,7 @@
         <f t="shared" si="197"/>
         <v>7930.166666666667</v>
       </c>
-      <c r="AB83" s="34"/>
+      <c r="AB83" s="31"/>
     </row>
     <row r="84" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
@@ -8744,7 +8661,7 @@
         <f t="shared" si="197"/>
         <v>-76965.638051432295</v>
       </c>
-      <c r="AB84" s="34"/>
+      <c r="AB84" s="31"/>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
@@ -8763,7 +8680,7 @@
       <c r="N85" s="4"/>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
+      <c r="A88" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8775,54 +8692,4 @@
     <ignoredError sqref="N11 N82:N84 N78 N73:N74 N64:N65 N57:N59 N47 N43 N38 N31:N33 N21 N15:N16 I52:M52 I65 F65 E60 C25 K21:M21 S33 J68:L68 M68:P68 P52 Z52 U52:Y52 Q52:T52 Q68:Z68 K43:M43 K47 L47:M47 O47:V47 W47:Z47 O43:Z43 AA30 AA18 K19 N36:N37 O21:Z21" formula="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E452B4-5BBE-E549-90D5-B335726F6A4D}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>